--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.1229405074644774</v>
+        <v>9.1229404468542725</v>
       </c>
       <c r="C2">
-        <v>19.267388767192045</v>
+        <v>19.267388768483244</v>
       </c>
       <c r="D2">
-        <v>-2.3471331091687375</v>
+        <v>-2.3471331550471461</v>
       </c>
       <c r="E2">
-        <v>18.05450929326733</v>
+        <v>18.054509264886605</v>
       </c>
       <c r="F2">
-        <v>-36.883400810745712</v>
+        <v>-36.883400811343819</v>
       </c>
       <c r="G2">
-        <v>29.130962832668388</v>
+        <v>29.13096282227275</v>
       </c>
       <c r="H2">
-        <v>17.511573787837278</v>
+        <v>17.511573745987903</v>
       </c>
       <c r="I2">
-        <v>24.246756876045652</v>
+        <v>24.24675685884381</v>
       </c>
       <c r="J2">
-        <v>27.017541552941509</v>
+        <v>27.017541514562083</v>
       </c>
       <c r="K2">
-        <v>21.049064770719411</v>
+        <v>21.049064732099964</v>
       </c>
       <c r="L2">
-        <v>30.542281184862475</v>
+        <v>30.542281142066997</v>
       </c>
       <c r="N2">
-        <v>29.785053423198292</v>
+        <v>29.785053352686873</v>
       </c>
       <c r="O2">
-        <v>22.384317437521474</v>
+        <v>22.384317402851593</v>
       </c>
       <c r="P2">
-        <v>15.260379602152341</v>
+        <v>15.260379600090687</v>
       </c>
       <c r="Q2">
-        <v>29.241970439685815</v>
+        <v>29.241970425704551</v>
       </c>
       <c r="S2">
-        <v>23.422817455275094</v>
+        <v>23.422817439370192</v>
       </c>
       <c r="V2">
-        <v>19.290019884405865</v>
+        <v>19.290019872737162</v>
       </c>
       <c r="W2">
-        <v>20.244496763923109</v>
+        <v>20.244496758278615</v>
       </c>
       <c r="X2">
-        <v>28.373940706494949</v>
+        <v>28.373940682813753</v>
       </c>
       <c r="AA2">
-        <v>34.639744604890183</v>
+        <v>34.639744553156646</v>
       </c>
       <c r="AB2">
-        <v>22.830870802782954</v>
+        <v>22.830870778022586</v>
       </c>
       <c r="AC2">
-        <v>22.941854490548479</v>
+        <v>22.941854486252083</v>
       </c>
       <c r="AD2">
-        <v>15.877945853411632</v>
+        <v>15.877945822590334</v>
       </c>
       <c r="AE2">
-        <v>-1.975481963260961</v>
+        <v>-1.9754819681398885</v>
       </c>
       <c r="AF2">
-        <v>23.355067243990476</v>
+        <v>23.35506724205996</v>
       </c>
       <c r="AG2">
-        <v>22.73164458050573</v>
+        <v>22.731644530395187</v>
       </c>
       <c r="AH2">
-        <v>20.006162381512866</v>
+        <v>20.006162373828772</v>
       </c>
       <c r="AI2">
-        <v>37.863021789050435</v>
+        <v>37.863021759882827</v>
       </c>
       <c r="AJ2">
-        <v>15.744597454647419</v>
+        <v>15.744597442293298</v>
       </c>
       <c r="AK2">
-        <v>24.39470366061181</v>
+        <v>24.394703632625294</v>
       </c>
       <c r="AL2">
-        <v>28.676149131206387</v>
+        <v>28.676149101421402</v>
       </c>
       <c r="AM2">
-        <v>23.982803842568444</v>
+        <v>23.982803773994533</v>
       </c>
       <c r="AN2">
-        <v>23.381509001185293</v>
+        <v>23.381508954777786</v>
       </c>
       <c r="AO2">
-        <v>24.791207021663581</v>
+        <v>24.791206995438586</v>
       </c>
       <c r="AQ2">
-        <v>23.260907288966393</v>
+        <v>23.260907257398571</v>
       </c>
       <c r="AR2">
-        <v>27.293706710311085</v>
+        <v>27.293706707990566</v>
       </c>
       <c r="AS2">
-        <v>29.596505422987946</v>
+        <v>29.596505416878813</v>
       </c>
       <c r="AU2">
-        <v>24.591458619340301</v>
+        <v>24.591458617119258</v>
       </c>
       <c r="AV2">
-        <v>12.536206703938774</v>
+        <v>12.536206665142061</v>
       </c>
       <c r="AW2">
-        <v>24.1278022944648</v>
+        <v>24.127802275108024</v>
       </c>
       <c r="AX2">
-        <v>24.063829787480842</v>
+        <v>24.063829745197125</v>
       </c>
       <c r="AY2">
-        <v>29.915530100965015</v>
+        <v>29.915530083023128</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -649,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.593047537616144</v>
+        <v>17.593047494709367</v>
       </c>
       <c r="C3">
-        <v>21.925680870620795</v>
+        <v>21.925680844987312</v>
       </c>
       <c r="E3">
-        <v>17.878863287093338</v>
+        <v>17.878863268090811</v>
       </c>
       <c r="F3">
-        <v>10.384260336647628</v>
+        <v>10.384260312114122</v>
       </c>
       <c r="G3">
-        <v>24.797222463625872</v>
+        <v>24.797222441603765</v>
       </c>
       <c r="H3">
-        <v>25.785263119859565</v>
+        <v>25.785263082029871</v>
       </c>
       <c r="J3">
-        <v>26.538938700577148</v>
+        <v>26.538938661558888</v>
       </c>
       <c r="K3">
-        <v>29.043955569966158</v>
+        <v>29.043955537325644</v>
       </c>
       <c r="L3">
-        <v>55.912990241193597</v>
+        <v>55.912990193805058</v>
       </c>
       <c r="M3">
-        <v>18.543021749783463</v>
+        <v>18.542902766078214</v>
       </c>
       <c r="N3">
-        <v>25.759984741670792</v>
+        <v>25.75998468608185</v>
       </c>
       <c r="P3">
-        <v>27.379084956140332</v>
+        <v>27.379084922364314</v>
       </c>
       <c r="Q3">
-        <v>17.505594161057388</v>
+        <v>17.505594128118332</v>
       </c>
       <c r="R3">
-        <v>21.188868174350318</v>
+        <v>21.188868149510313</v>
       </c>
       <c r="W3">
-        <v>22.434677288680518</v>
+        <v>22.434677293224524</v>
       </c>
       <c r="AA3">
-        <v>29.84620119079915</v>
+        <v>29.846201149560329</v>
       </c>
       <c r="AB3">
-        <v>20.452400333011923</v>
+        <v>20.452400324453805</v>
       </c>
       <c r="AC3">
-        <v>30.337163954371903</v>
+        <v>30.337163921156332</v>
       </c>
       <c r="AD3">
-        <v>20.198932142459427</v>
+        <v>20.198932091386354</v>
       </c>
       <c r="AE3">
-        <v>23.473492978701955</v>
+        <v>23.473492961883807</v>
       </c>
       <c r="AF3">
-        <v>28.220937991505792</v>
+        <v>28.22093797461477</v>
       </c>
       <c r="AG3">
-        <v>31.226512172367677</v>
+        <v>31.226512138843447</v>
       </c>
       <c r="AH3">
-        <v>34.606371294033465</v>
+        <v>34.606371289106789</v>
       </c>
       <c r="AI3">
-        <v>26.43695928498704</v>
+        <v>26.436959237541231</v>
       </c>
       <c r="AJ3">
-        <v>33.182461764726128</v>
+        <v>33.182461719035899</v>
       </c>
       <c r="AK3">
-        <v>47.83996936313531</v>
+        <v>47.839969313198281</v>
       </c>
       <c r="AL3">
-        <v>32.14785369469945</v>
+        <v>32.147853670875918</v>
       </c>
       <c r="AM3">
-        <v>21.23060843453311</v>
+        <v>21.230608395002037</v>
       </c>
       <c r="AN3">
-        <v>14.184888420733188</v>
+        <v>14.184888390323039</v>
       </c>
       <c r="AO3">
-        <v>30.747094580126145</v>
+        <v>30.747094552105693</v>
       </c>
       <c r="AP3">
-        <v>23.734185687452054</v>
+        <v>23.7341856576395</v>
       </c>
       <c r="AQ3">
-        <v>24.283788827595743</v>
+        <v>24.283788811733928</v>
       </c>
       <c r="AS3">
-        <v>23.111472359739594</v>
+        <v>23.111472344298193</v>
       </c>
       <c r="AT3">
-        <v>18.302023895906274</v>
+        <v>18.302023858072772</v>
       </c>
       <c r="AU3">
-        <v>29.181246969303061</v>
+        <v>29.181246938247114</v>
       </c>
       <c r="AV3">
-        <v>24.766965163084564</v>
+        <v>24.766965106745118</v>
       </c>
       <c r="AW3">
-        <v>22.709788528117997</v>
+        <v>22.709788504053392</v>
       </c>
       <c r="AX3">
-        <v>22.342448288875289</v>
+        <v>22.342448249301953</v>
       </c>
       <c r="AY3">
-        <v>23.183382682470778</v>
+        <v>23.183382643050095</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,256 +401,268 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>9.1229404468542725</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>19.267388768483244</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.3471331550471461</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>18.054509264886605</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-36.883400811343819</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>29.13096282227275</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>17.511573745987903</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>24.24675685884381</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>27.017541514562083</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>21.049064732099964</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>30.542281142066997</v>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>29.785053352686873</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>22.384317402851593</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>15.260379600090687</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>29.241970425704551</v>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>23.422817439370192</v>
+        <v>23.4228507693702</v>
       </c>
       <c r="V2">
         <v>19.290019872737162</v>
       </c>
       <c r="W2">
-        <v>20.244496758278615</v>
+        <v>20.244530088278623</v>
       </c>
       <c r="X2">
-        <v>28.373940682813753</v>
+        <v>28.373907352813745</v>
       </c>
       <c r="AA2">
-        <v>34.639744553156646</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>22.830870778022586</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>22.941854486252083</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>15.877945822590334</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-1.9754819681398885</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>23.35506724205996</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>22.731644530395187</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>20.006162373828772</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>37.863021759882827</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>15.744597442293298</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>24.394703632625294</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>28.676149101421402</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>23.982803773994533</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>23.381508954777786</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>24.791206995438586</v>
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>23.260907257398571</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>27.293706707990566</v>
+        <v>27.293673377990558</v>
       </c>
       <c r="AS2">
         <v>29.596505416878813</v>
       </c>
       <c r="AU2">
-        <v>24.591458617119258</v>
+        <v>24.59142528711925</v>
       </c>
       <c r="AV2">
-        <v>12.536206665142061</v>
+        <v>12.536239995142068</v>
       </c>
       <c r="AW2">
-        <v>24.127802275108024</v>
+        <v>24.127768945108016</v>
       </c>
       <c r="AX2">
-        <v>24.063829745197125</v>
+        <v>24.063796415197118</v>
       </c>
       <c r="AY2">
-        <v>29.915530083023128</v>
+        <v>29.91549675302312</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>17.593047494709367</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>21.925680844987312</v>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>17.878863268090811</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>10.384260312114122</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>24.797222441603765</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>25.785263082029871</v>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>26.538938661558888</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>29.043955537325644</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>55.912990193805058</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>18.542902766078214</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>25.75998468608185</v>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>27.379084922364314</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>17.505594128118332</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>21.188868149510313</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>22.434677293224524</v>
+        <v>22.434643963224545</v>
       </c>
       <c r="AA3">
-        <v>29.846201149560329</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>20.452400324453805</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>30.337163921156332</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>20.198932091386354</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>23.473492961883807</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>28.22093797461477</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>31.226512138843447</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>34.606371289106789</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>26.436959237541231</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>33.182461719035899</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>47.839969313198281</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>32.147853670875918</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>21.230608395002037</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>14.184888390323039</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>30.747094552105693</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>23.7341856576395</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>24.283788811733928</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>23.111472344298193</v>
+        <v>23.111439014298185</v>
       </c>
       <c r="AT3">
         <v>18.302023858072772</v>
       </c>
       <c r="AU3">
-        <v>29.181246938247114</v>
+        <v>29.181213608247106</v>
       </c>
       <c r="AV3">
-        <v>24.766965106745118</v>
+        <v>24.76693177674511</v>
       </c>
       <c r="AW3">
         <v>22.709788504053392</v>
       </c>
       <c r="AX3">
-        <v>22.342448249301953</v>
+        <v>26.515748249301964</v>
       </c>
       <c r="AY3">
-        <v>23.183382643050095</v>
+        <v>65.603349313050103</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.1229738374644853</v>
-      </c>
-      <c r="C2">
-        <v>25.574055437192044</v>
+        <v>22.384284072851585</v>
       </c>
       <c r="D2">
-        <v>-2.3471664391687455</v>
+        <v>23.381542284777765</v>
       </c>
       <c r="E2">
-        <v>18.054542623267338</v>
+        <v>23.260940587398579</v>
       </c>
       <c r="F2">
         <v>-36.883400810745712</v>
@@ -648,14 +640,14 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>17.593047537616144</v>
-      </c>
       <c r="C3">
-        <v>29.812380870620814</v>
+        <v>21.188901479510321</v>
+      </c>
+      <c r="D3">
+        <v>14.184921720323047</v>
       </c>
       <c r="E3">
-        <v>17.878829957093359</v>
+        <v>24.188139510940232</v>
       </c>
       <c r="F3">
         <v>10.384260336647628</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>9.1229738374644853</v>
+        <v>10.398420022686878</v>
       </c>
       <c r="C2">
-        <v>25.574055437192044</v>
+        <v>22.384284072851585</v>
       </c>
       <c r="D2">
-        <v>-2.3471664391687455</v>
+        <v>28.20280377399456</v>
       </c>
       <c r="E2">
-        <v>18.054542623267338</v>
+        <v>23.381542284777765</v>
       </c>
       <c r="F2">
         <v>-36.883400810745712</v>
@@ -649,13 +644,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>17.593047537616144</v>
-      </c>
-      <c r="C3">
-        <v>29.812380870620814</v>
+        <v>9.9566180160818476</v>
+      </c>
+      <c r="D3">
+        <v>38.34060839500205</v>
       </c>
       <c r="E3">
-        <v>17.878829957093359</v>
+        <v>14.184921720323047</v>
       </c>
       <c r="F3">
         <v>10.384260336647628</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_SOL_submax_1.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,130 +513,130 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>9.1229737768542805</v>
+      </c>
+      <c r="C2">
+        <v>25.574055438483242</v>
+      </c>
+      <c r="D2">
+        <v>-2.3471664850471541</v>
+      </c>
+      <c r="E2">
+        <v>18.054542594886613</v>
+      </c>
+      <c r="F2">
+        <v>-36.883400811343819</v>
+      </c>
+      <c r="G2">
+        <v>29.130996152272758</v>
+      </c>
+      <c r="H2">
+        <v>17.511573745987903</v>
+      </c>
+      <c r="I2">
+        <v>24.246723528843802</v>
+      </c>
+      <c r="J2">
+        <v>27.017574844562091</v>
+      </c>
+      <c r="K2">
+        <v>42.09239806209996</v>
+      </c>
+      <c r="L2">
+        <v>30.542314472067005</v>
+      </c>
+      <c r="N2">
         <v>10.398420022686878</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>22.384284072851585</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>15.260379600090687</v>
+      </c>
+      <c r="Q2">
+        <v>54.585337095704574</v>
+      </c>
+      <c r="S2">
+        <v>23.4228507693702</v>
+      </c>
+      <c r="V2">
+        <v>19.290019872737162</v>
+      </c>
+      <c r="W2">
+        <v>20.244530088278623</v>
+      </c>
+      <c r="X2">
+        <v>28.373907352813745</v>
+      </c>
+      <c r="AA2">
+        <v>34.639777883156626</v>
+      </c>
+      <c r="AB2">
+        <v>13.370837448022598</v>
+      </c>
+      <c r="AC2">
+        <v>22.941821156252075</v>
+      </c>
+      <c r="AD2">
+        <v>15.877912492590355</v>
+      </c>
+      <c r="AE2">
+        <v>-1.9754819681398885</v>
+      </c>
+      <c r="AF2">
+        <v>23.35503391205998</v>
+      </c>
+      <c r="AG2">
+        <v>22.731677860395195</v>
+      </c>
+      <c r="AH2">
+        <v>20.006129043828764</v>
+      </c>
+      <c r="AI2">
+        <v>37.863021759882827</v>
+      </c>
+      <c r="AJ2">
+        <v>17.53456411229331</v>
+      </c>
+      <c r="AK2">
+        <v>24.394703632625294</v>
+      </c>
+      <c r="AL2">
+        <v>28.676115771421394</v>
+      </c>
+      <c r="AM2">
         <v>28.20280377399456</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>23.381542284777765</v>
       </c>
-      <c r="F2">
-        <v>-36.883400810745712</v>
-      </c>
-      <c r="G2">
-        <v>29.130996162668396</v>
-      </c>
-      <c r="H2">
-        <v>17.511573787837278</v>
-      </c>
-      <c r="I2">
-        <v>24.246723546045644</v>
-      </c>
-      <c r="J2">
-        <v>27.017574882941517</v>
-      </c>
-      <c r="K2">
-        <v>42.092398100719407</v>
-      </c>
-      <c r="L2">
-        <v>30.542314514862483</v>
-      </c>
-      <c r="N2">
-        <v>10.398420093198297</v>
-      </c>
-      <c r="O2">
-        <v>22.384284107521466</v>
-      </c>
-      <c r="P2">
-        <v>15.260379602152341</v>
-      </c>
-      <c r="Q2">
-        <v>54.585337109685838</v>
-      </c>
-      <c r="S2">
-        <v>23.422850785275102</v>
-      </c>
-      <c r="V2">
-        <v>19.290019884405865</v>
-      </c>
-      <c r="W2">
-        <v>20.244530093923117</v>
-      </c>
-      <c r="X2">
-        <v>28.373907376494941</v>
-      </c>
-      <c r="AA2">
-        <v>34.639777934890162</v>
-      </c>
-      <c r="AB2">
-        <v>13.370837472782966</v>
-      </c>
-      <c r="AC2">
-        <v>22.941821160548471</v>
-      </c>
-      <c r="AD2">
-        <v>15.877912523411652</v>
-      </c>
-      <c r="AE2">
-        <v>-1.975481963260961</v>
-      </c>
-      <c r="AF2">
-        <v>23.355033913990496</v>
-      </c>
-      <c r="AG2">
-        <v>22.731677910505738</v>
-      </c>
-      <c r="AH2">
-        <v>20.006129051512858</v>
-      </c>
-      <c r="AI2">
-        <v>37.863021789050435</v>
-      </c>
-      <c r="AJ2">
-        <v>17.534564124647432</v>
-      </c>
-      <c r="AK2">
-        <v>24.39470366061181</v>
-      </c>
-      <c r="AL2">
-        <v>28.676115801206379</v>
-      </c>
-      <c r="AM2">
-        <v>28.202803842568471</v>
-      </c>
-      <c r="AN2">
-        <v>23.381542331185273</v>
-      </c>
       <c r="AO2">
-        <v>24.791173691663573</v>
+        <v>24.791173665438578</v>
       </c>
       <c r="AQ2">
-        <v>23.260940618966401</v>
+        <v>23.260940587398579</v>
       </c>
       <c r="AR2">
-        <v>27.293673380311077</v>
+        <v>27.293673377990558</v>
       </c>
       <c r="AS2">
-        <v>29.596505422987946</v>
+        <v>29.596505416878813</v>
       </c>
       <c r="AU2">
-        <v>24.591425289340293</v>
+        <v>24.59142528711925</v>
       </c>
       <c r="AV2">
-        <v>12.536240033938782</v>
+        <v>12.536239995142068</v>
       </c>
       <c r="AW2">
-        <v>24.127768964464792</v>
+        <v>24.127768945108016</v>
       </c>
       <c r="AX2">
-        <v>24.063796457480834</v>
+        <v>24.063796415197118</v>
       </c>
       <c r="AY2">
-        <v>29.915496770965007</v>
+        <v>29.91549675302312</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -644,121 +644,121 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>17.593047494709367</v>
+      </c>
+      <c r="C3">
+        <v>29.812380844987331</v>
+      </c>
+      <c r="E3">
+        <v>17.878829938090831</v>
+      </c>
+      <c r="F3">
+        <v>10.384260312114122</v>
+      </c>
+      <c r="G3">
+        <v>24.797189111603785</v>
+      </c>
+      <c r="H3">
+        <v>25.785229752029892</v>
+      </c>
+      <c r="J3">
+        <v>39.298938661558907</v>
+      </c>
+      <c r="K3">
+        <v>29.043955537325644</v>
+      </c>
+      <c r="L3">
+        <v>55.912990193805058</v>
+      </c>
+      <c r="M3">
+        <v>18.542936096078222</v>
+      </c>
+      <c r="N3">
         <v>9.9566180160818476</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>27.379084922364314</v>
+      </c>
+      <c r="Q3">
+        <v>17.505560798118324</v>
+      </c>
+      <c r="R3">
+        <v>21.188901479510321</v>
+      </c>
+      <c r="W3">
+        <v>22.434643963224545</v>
+      </c>
+      <c r="AA3">
+        <v>29.846167819560321</v>
+      </c>
+      <c r="AB3">
+        <v>20.922366994453796</v>
+      </c>
+      <c r="AC3">
+        <v>30.33719725115634</v>
+      </c>
+      <c r="AD3">
+        <v>20.198898761386346</v>
+      </c>
+      <c r="AE3">
+        <v>23.473459631883799</v>
+      </c>
+      <c r="AF3">
+        <v>28.22093797461477</v>
+      </c>
+      <c r="AG3">
+        <v>31.226512138843447</v>
+      </c>
+      <c r="AH3">
+        <v>34.539568853076617</v>
+      </c>
+      <c r="AI3">
+        <v>29.376925907541221</v>
+      </c>
+      <c r="AJ3">
+        <v>33.182461719035899</v>
+      </c>
+      <c r="AK3">
+        <v>47.840002643198289</v>
+      </c>
+      <c r="AL3">
+        <v>32.147853670875918</v>
+      </c>
+      <c r="AM3">
         <v>38.34060839500205</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>14.184921720323047</v>
       </c>
-      <c r="F3">
-        <v>10.384260336647628</v>
-      </c>
-      <c r="G3">
-        <v>24.797189133625892</v>
-      </c>
-      <c r="H3">
-        <v>25.785229789859585</v>
-      </c>
-      <c r="J3">
-        <v>39.298938700577168</v>
-      </c>
-      <c r="K3">
-        <v>29.043955569966158</v>
-      </c>
-      <c r="L3">
-        <v>55.912990241193597</v>
-      </c>
-      <c r="M3">
-        <v>18.543055079783471</v>
-      </c>
-      <c r="N3">
-        <v>9.956618071670789</v>
-      </c>
-      <c r="P3">
-        <v>27.379084956140332</v>
-      </c>
-      <c r="Q3">
-        <v>17.50556083105738</v>
-      </c>
-      <c r="R3">
-        <v>21.188901504350326</v>
-      </c>
-      <c r="W3">
-        <v>22.434643958680539</v>
-      </c>
-      <c r="AA3">
-        <v>29.846167860799142</v>
-      </c>
-      <c r="AB3">
-        <v>20.922367003011914</v>
-      </c>
-      <c r="AC3">
-        <v>30.337197284371911</v>
-      </c>
-      <c r="AD3">
-        <v>20.198898812459419</v>
-      </c>
-      <c r="AE3">
-        <v>23.473459648701947</v>
-      </c>
-      <c r="AF3">
-        <v>28.220937991505792</v>
-      </c>
-      <c r="AG3">
-        <v>31.226512172367677</v>
-      </c>
-      <c r="AH3">
-        <v>34.539568864555122</v>
-      </c>
-      <c r="AI3">
-        <v>29.37692595498703</v>
-      </c>
-      <c r="AJ3">
-        <v>33.182461764726128</v>
-      </c>
-      <c r="AK3">
-        <v>47.840002693135318</v>
-      </c>
-      <c r="AL3">
-        <v>32.14785369469945</v>
-      </c>
-      <c r="AM3">
-        <v>38.340608434533124</v>
-      </c>
-      <c r="AN3">
-        <v>14.184921750733196</v>
-      </c>
       <c r="AO3">
-        <v>30.747127910126153</v>
+        <v>30.747127882105701</v>
       </c>
       <c r="AP3">
-        <v>23.734152357452047</v>
+        <v>23.734152327639492</v>
       </c>
       <c r="AQ3">
-        <v>24.188139521995879</v>
+        <v>24.188139510940232</v>
       </c>
       <c r="AS3">
-        <v>23.111439029739586</v>
+        <v>23.111439014298185</v>
       </c>
       <c r="AT3">
-        <v>18.302023895906274</v>
+        <v>18.302023858072772</v>
       </c>
       <c r="AU3">
-        <v>29.181213639303053</v>
+        <v>29.181213608247106</v>
       </c>
       <c r="AV3">
-        <v>24.766931833084556</v>
+        <v>24.76693177674511</v>
       </c>
       <c r="AW3">
-        <v>22.709788528117997</v>
+        <v>22.709788504053392</v>
       </c>
       <c r="AX3">
-        <v>26.515748288875301</v>
+        <v>26.515748249301964</v>
       </c>
       <c r="AY3">
-        <v>65.603349352470786</v>
+        <v>65.603349313050103</v>
       </c>
     </row>
   </sheetData>
